--- a/活頁簿2.xlsx
+++ b/活頁簿2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\道\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\道\Documents\GitHub\61A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165BFEE-AC58-43E8-955D-2AC5102E4A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797755B3-4D39-441D-B485-F741756BD252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{86816111-9593-4398-80B1-16337D9E224D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{86816111-9593-4398-80B1-16337D9E224D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId2"/>
     <sheet name="Curriculum" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Introduction to Computer Science and Programming</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,53 +136,6 @@
   </si>
   <si>
     <t>week2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>week 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61A Lab01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61A</t>
-  </si>
-  <si>
-    <t>Alg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBCE106-22A3-41F3-98BB-56D814498E2D}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -742,90 +695,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105A9B28-5511-486F-8C59-B3C24B7FDF5F}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B40EF6D-B301-4374-A7C2-BB15D303A3A5}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -835,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2639AE28-A66C-433E-83CA-903AE9A3F24A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
